--- a/material-placa.xlsx
+++ b/material-placa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist196930_tecnico_ulisboa_pt/Documents/Documentos/ROB9-16/Projetos/kit-soldadura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{331436ED-1E28-49EF-8B9E-82490173D102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E8FE7-D5CB-458A-928B-0F110AE0FD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{56AE9A07-EC7F-4CA1-9974-7130D07C0E18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56AE9A07-EC7F-4CA1-9974-7130D07C0E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Material necessário comprar para a placa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>LED Vermelho</t>
   </si>
@@ -82,9 +78,6 @@
     <t>Quantidade por unidade</t>
   </si>
   <si>
-    <t>Quantidade para teste</t>
-  </si>
-  <si>
     <t>Links</t>
   </si>
   <si>
@@ -94,16 +87,10 @@
     <t>LED amarelo</t>
   </si>
   <si>
-    <t>Valor por componente para teste</t>
-  </si>
-  <si>
-    <t>Custo total de teste s/placa</t>
-  </si>
-  <si>
-    <t>Custo das placas com portes</t>
-  </si>
-  <si>
-    <t>total</t>
+    <t>Total sem pcb</t>
+  </si>
+  <si>
+    <t>KIT SOLTADURA - COMPONENTES</t>
   </si>
 </sst>
 </file>
@@ -153,11 +140,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -473,223 +460,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51D3FDB-CEE4-4C8A-B0F2-29D6A039C97D}">
-  <dimension ref="B4:G18"/>
+  <dimension ref="B4:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" customWidth="1"/>
-    <col min="4" max="4" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.53125" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="127.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7:F13" si="0">E7*D7</f>
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="1">
         <v>0.34</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="1">
         <v>0.04</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="1">
         <v>0.191</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.95500000000000007</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1">
-        <f>SUM(F7:F13)</f>
-        <v>7.0150000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1">
-        <v>19.73</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1">
-        <f>SUM(F16:F17)</f>
-        <v>26.745000000000001</v>
-      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(D7:D13)</f>
+        <v>0.9720000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/material-placa.xlsx
+++ b/material-placa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpsgj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E8FE7-D5CB-458A-928B-0F110AE0FD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D128D1BA-95A3-45C3-9C83-E33CB00BDD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56AE9A07-EC7F-4CA1-9974-7130D07C0E18}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{56AE9A07-EC7F-4CA1-9974-7130D07C0E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>LED Vermelho</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>KIT SOLTADURA - COMPONENTES</t>
+  </si>
+  <si>
+    <t>https://www.ptrobotics.com/suporte-pilhas/366-pp3-connector.html?gclid=Cj0KCQjwguGYBhDRARIsAHgRm4-VrK0A46wuEH-PEt_CZW79EWvXwBWDFZ_1E3wm6hctYjKeHSZoDbIaAte6EALw_wcB</t>
+  </si>
+  <si>
+    <t>suporte pilha 9v</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;???\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +116,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,19 +156,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -462,24 +488,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51D3FDB-CEE4-4C8A-B0F2-29D6A039C97D}">
   <dimension ref="B4:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="127.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.53125" customWidth="1"/>
+    <col min="4" max="4" width="18.53125" customWidth="1"/>
+    <col min="5" max="5" width="127.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -490,7 +516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -504,7 +530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -518,7 +544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -532,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -542,11 +568,11 @@
       <c r="D10" s="1">
         <v>0.34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -560,7 +586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -574,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -588,23 +614,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(D7:D13)</f>
-        <v>0.9720000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+        <f>SUM(D7:D14)</f>
+        <v>1.4020000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{16231729-E803-49C3-A5E3-BDA918B6555F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>